--- a/INTLINE/data/132/MEASTF/Accommodation authorized by type and by municipality_historical.xlsx
+++ b/INTLINE/data/132/MEASTF/Accommodation authorized by type and by municipality_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SL4"/>
+  <dimension ref="A1:SM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,6 +2892,11 @@
           <t>2022-01</t>
         </is>
       </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4414,6 +4419,9 @@
       <c r="SL2" t="n">
         <v>15310</v>
       </c>
+      <c r="SM2" t="n">
+        <v>17240</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5936,6 +5944,9 @@
       <c r="SL3" t="n">
         <v>37698</v>
       </c>
+      <c r="SM3" t="n">
+        <v>43366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -7457,6 +7468,9 @@
       </c>
       <c r="SL4" t="n">
         <v>19778</v>
+      </c>
+      <c r="SM4" t="n">
+        <v>22225</v>
       </c>
     </row>
   </sheetData>
